--- a/examples/atlas/desikan_atlas.xlsx
+++ b/examples/atlas/desikan_atlas.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannivolpe/Desktop/Braph-2.0-Matlab/examples/atlas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28820" windowHeight="17880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EXCEL.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AAL90_" localSheetId="0">EXCEL.txt!$A$1:$G$91</definedName>
+    <definedName name="AAL90_" localSheetId="0">EXCEL.txt!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,19 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
-  <si>
-    <t>BrainMesh_ICBM152.nv</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Desikan_Freesurfer_v5.1</t>
   </si>
@@ -1269,34 +1265,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>-12.6</v>
@@ -1307,19 +1299,13 @@
       <c r="E2" s="1">
         <v>42.4</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>-8.6</v>
@@ -1330,19 +1316,13 @@
       <c r="E3" s="1">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>-31.3</v>
@@ -1353,19 +1333,13 @@
       <c r="E4" s="1">
         <v>16.5</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>-34.6</v>
@@ -1376,19 +1350,13 @@
       <c r="E5" s="1">
         <v>42.8</v>
       </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>-41</v>
@@ -1399,19 +1367,13 @@
       <c r="E6" s="1">
         <v>-11.1</v>
       </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>-24</v>
@@ -1422,19 +1384,13 @@
       <c r="E7" s="1">
         <v>-14.4</v>
       </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>-42.4</v>
@@ -1445,19 +1401,13 @@
       <c r="E8" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>-44.6</v>
@@ -1468,19 +1418,13 @@
       <c r="E9" s="1">
         <v>13.1</v>
       </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>-8</v>
@@ -1491,19 +1435,13 @@
       <c r="E10" s="1">
         <v>-14.9</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>-6.8</v>
@@ -1514,19 +1452,13 @@
       <c r="E11" s="1">
         <v>1.6</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>-6.6</v>
@@ -1537,19 +1469,13 @@
       <c r="E12" s="1">
         <v>26.1</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>-34.200000000000003</v>
@@ -1560,19 +1486,13 @@
       <c r="E13" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>-37.799999999999997</v>
@@ -1583,19 +1503,13 @@
       <c r="E14" s="1">
         <v>42.1</v>
       </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>-42.3</v>
@@ -1606,19 +1520,13 @@
       <c r="E15" s="1">
         <v>43.6</v>
       </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>-50.4</v>
@@ -1629,19 +1537,13 @@
       <c r="E16" s="1">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>-22.8</v>
@@ -1652,19 +1554,13 @@
       <c r="E17" s="1">
         <v>46.3</v>
       </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>-40</v>
@@ -1675,19 +1571,13 @@
       <c r="E18" s="1">
         <v>27.3</v>
       </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>-10</v>
@@ -1698,19 +1588,13 @@
       <c r="E19" s="1">
         <v>56.1</v>
       </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>-7.3</v>
@@ -1721,19 +1605,13 @@
       <c r="E20" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>9.8000000000000007</v>
@@ -1744,19 +1622,13 @@
       <c r="E21" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>-11.6</v>
@@ -1767,19 +1639,13 @@
       <c r="E22" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <v>-8.6999999999999993</v>
@@ -1790,19 +1656,13 @@
       <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>-13.9</v>
@@ -1813,19 +1673,13 @@
       <c r="E24" s="1">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>-16.5</v>
@@ -1836,19 +1690,13 @@
       <c r="E25" s="1">
         <v>-4.3</v>
       </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>-29.7</v>
@@ -1859,19 +1707,13 @@
       <c r="E26" s="1">
         <v>-1</v>
       </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
         <v>-44</v>
@@ -1882,19 +1724,13 @@
       <c r="E27" s="1">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>-52.7</v>
@@ -1905,19 +1741,13 @@
       <c r="E28" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>-52.1</v>
@@ -1928,19 +1758,13 @@
       <c r="E29" s="1">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="F29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>-55.6</v>
@@ -1951,19 +1775,13 @@
       <c r="E30" s="1">
         <v>-12.9</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1">
         <v>-48.9</v>
@@ -1974,19 +1792,13 @@
       <c r="E31" s="1">
         <v>-22.2</v>
       </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
         <v>-32.799999999999997</v>
@@ -1997,19 +1809,13 @@
       <c r="E32" s="1">
         <v>-34.799999999999997</v>
       </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1">
         <v>-25.8</v>
@@ -2020,19 +1826,13 @@
       <c r="E33" s="1">
         <v>-31.6</v>
       </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1">
         <v>-24.7</v>
@@ -2043,19 +1843,13 @@
       <c r="E34" s="1">
         <v>-17.399999999999999</v>
       </c>
-      <c r="F34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>-35.700000000000003</v>
@@ -2066,19 +1860,13 @@
       <c r="E35" s="1">
         <v>-19.7</v>
       </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>13.4</v>
@@ -2089,19 +1877,13 @@
       <c r="E36" s="1">
         <v>42</v>
       </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>10.3</v>
@@ -2112,19 +1894,13 @@
       <c r="E37" s="1">
         <v>-10</v>
       </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1">
         <v>7.3</v>
@@ -2135,19 +1911,13 @@
       <c r="E38" s="1">
         <v>26.3</v>
       </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>34.9</v>
@@ -2158,19 +1928,13 @@
       <c r="E39" s="1">
         <v>43</v>
       </c>
-      <c r="F39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
         <v>42.1</v>
@@ -2181,19 +1945,13 @@
       <c r="E40" s="1">
         <v>-10</v>
       </c>
-      <c r="F40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
         <v>23.6</v>
@@ -2204,19 +1962,13 @@
       <c r="E41" s="1">
         <v>-15.2</v>
       </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>45</v>
@@ -2227,19 +1979,13 @@
       <c r="E42" s="1">
         <v>4.5</v>
       </c>
-      <c r="F42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
         <v>44.9</v>
@@ -2250,19 +1996,13 @@
       <c r="E43" s="1">
         <v>14.2</v>
       </c>
-      <c r="F43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
         <v>8.8000000000000007</v>
@@ -2273,19 +2013,13 @@
       <c r="E44" s="1">
         <v>-14.8</v>
       </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
         <v>32.299999999999997</v>
@@ -2296,19 +2030,13 @@
       <c r="E45" s="1">
         <v>17.3</v>
       </c>
-      <c r="F45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1">
         <v>8</v>
@@ -2319,19 +2047,13 @@
       <c r="E46" s="1">
         <v>2.1</v>
       </c>
-      <c r="F46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1">
         <v>35.1</v>
@@ -2342,19 +2064,13 @@
       <c r="E47" s="1">
         <v>2.4</v>
       </c>
-      <c r="F47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1">
         <v>36.799999999999997</v>
@@ -2365,19 +2081,13 @@
       <c r="E48" s="1">
         <v>43.5</v>
       </c>
-      <c r="F48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>41.6</v>
@@ -2388,19 +2098,13 @@
       <c r="E49" s="1">
         <v>43.8</v>
       </c>
-      <c r="F49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1">
         <v>50.6</v>
@@ -2411,19 +2115,13 @@
       <c r="E50" s="1">
         <v>30.7</v>
       </c>
-      <c r="F50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1">
         <v>22.6</v>
@@ -2434,19 +2132,13 @@
       <c r="E51" s="1">
         <v>48.1</v>
       </c>
-      <c r="F51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
         <v>42.8</v>
@@ -2457,19 +2149,13 @@
       <c r="E52" s="1">
         <v>28.1</v>
       </c>
-      <c r="F52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1">
         <v>9.9</v>
@@ -2480,19 +2166,13 @@
       <c r="E53" s="1">
         <v>55.6</v>
       </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1">
         <v>7.6</v>
@@ -2503,19 +2183,13 @@
       <c r="E54" s="1">
         <v>36.200000000000003</v>
       </c>
-      <c r="F54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C55" s="1">
         <v>-8.9</v>
@@ -2526,19 +2200,13 @@
       <c r="E55" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="F55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1">
         <v>11.7</v>
@@ -2549,19 +2217,13 @@
       <c r="E56" s="1">
         <v>37.700000000000003</v>
       </c>
-      <c r="F56" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1">
         <v>8.6999999999999993</v>
@@ -2572,19 +2234,13 @@
       <c r="E57" s="1">
         <v>19</v>
       </c>
-      <c r="F57" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" s="1">
         <v>14</v>
@@ -2595,19 +2251,13 @@
       <c r="E58" s="1">
         <v>6.7</v>
       </c>
-      <c r="F58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1">
         <v>16.8</v>
@@ -2618,19 +2268,13 @@
       <c r="E59" s="1">
         <v>-3.6</v>
       </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1">
         <v>30.3</v>
@@ -2641,19 +2285,13 @@
       <c r="E60" s="1">
         <v>0.5</v>
       </c>
-      <c r="F60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="1">
         <v>44.8</v>
@@ -2664,19 +2302,13 @@
       <c r="E61" s="1">
         <v>6.5</v>
       </c>
-      <c r="F61" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1">
         <v>51.9</v>
@@ -2687,19 +2319,13 @@
       <c r="E62" s="1">
         <v>5.6</v>
       </c>
-      <c r="F62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1">
         <v>53</v>
@@ -2710,19 +2336,13 @@
       <c r="E63" s="1">
         <v>-5.5</v>
       </c>
-      <c r="F63" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1">
         <v>55.9</v>
@@ -2733,19 +2353,13 @@
       <c r="E64" s="1">
         <v>-12.9</v>
       </c>
-      <c r="F64" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1">
         <v>49.3</v>
@@ -2756,19 +2370,13 @@
       <c r="E65" s="1">
         <v>-23</v>
       </c>
-      <c r="F65" t="s">
-        <v>2</v>
-      </c>
-      <c r="G65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C66" s="1">
         <v>34</v>
@@ -2779,19 +2387,13 @@
       <c r="E66" s="1">
         <v>-33.1</v>
       </c>
-      <c r="F66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1">
         <v>26.2</v>
@@ -2802,19 +2404,13 @@
       <c r="E67" s="1">
         <v>-31.9</v>
       </c>
-      <c r="F67" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1">
         <v>26.1</v>
@@ -2825,19 +2421,13 @@
       <c r="E68" s="1">
         <v>-16.2</v>
       </c>
-      <c r="F68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1">
         <v>35.9</v>
@@ -2847,21 +2437,10 @@
       </c>
       <c r="E69" s="1">
         <v>-19.2</v>
-      </c>
-      <c r="F69" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>